--- a/PhanPhoiCongViec.xlsx
+++ b/PhanPhoiCongViec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BC05\Jira\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{475AD4FE-FC57-4095-8630-8C2453FC2C28}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED80480-78EC-4631-92A3-0DD648D66586}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{95A320A9-8461-4B36-A009-545836CF17ED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="86">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -286,13 +286,16 @@
   </si>
   <si>
     <t>15/2/2046</t>
+  </si>
+  <si>
+    <t>Vì không liên lạc được với hai bạn cùng nhóm nên đồ án này em làm một mình nên còn có chỗ chưa tốt! Mong mentor thông cảm!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,12 +340,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="9" tint="-0.249977111117893"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -396,7 +393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -474,21 +471,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -525,9 +507,31 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -577,23 +581,23 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -913,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A3ABBA-637F-40A2-A092-CBFEDFB7369B}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -963,7 +967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -991,16 +995,18 @@
       <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="J2" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="7">
@@ -1021,16 +1027,16 @@
       <c r="I3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>45201</v>
       </c>
       <c r="D4" s="7">
@@ -1051,16 +1057,16 @@
       <c r="I4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>44928</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>44959</v>
       </c>
       <c r="D5" s="7">
@@ -1081,16 +1087,16 @@
       <c r="I5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>44928</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>44959</v>
       </c>
       <c r="D6" s="7">
@@ -1113,14 +1119,14 @@
       </c>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>44928</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>44959</v>
       </c>
       <c r="D7" s="7">
@@ -1143,14 +1149,14 @@
       </c>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>44928</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>44959</v>
       </c>
       <c r="D8" s="7">
@@ -1173,14 +1179,14 @@
       </c>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>44928</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>44959</v>
       </c>
       <c r="D9" s="7">
@@ -1203,14 +1209,14 @@
       </c>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>44928</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>44959</v>
       </c>
       <c r="D10" s="7">
@@ -1233,14 +1239,14 @@
       </c>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>44987</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>45018</v>
       </c>
       <c r="D11" s="7">
@@ -1261,16 +1267,16 @@
       <c r="I11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>44987</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>45018</v>
       </c>
       <c r="D12" s="7">
@@ -1291,16 +1297,16 @@
       <c r="I12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>45048</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>45079</v>
       </c>
       <c r="D13" s="7">
@@ -1321,16 +1327,16 @@
       <c r="I13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>45109</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>45140</v>
       </c>
       <c r="D14" s="7">
@@ -1351,16 +1357,16 @@
       <c r="I14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>45109</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>45140</v>
       </c>
       <c r="D15" s="7">
@@ -1381,16 +1387,16 @@
       <c r="I15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>45109</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>45140</v>
       </c>
       <c r="D16" s="7">
@@ -1411,16 +1417,16 @@
       <c r="I16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>45171</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>45201</v>
       </c>
       <c r="D17" s="7">
@@ -1441,16 +1447,16 @@
       <c r="I17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>45201</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>45232</v>
       </c>
       <c r="D18" s="7">
@@ -1471,16 +1477,16 @@
       <c r="I18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>45201</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>45232</v>
       </c>
       <c r="D19" s="7">
@@ -1501,16 +1507,16 @@
       <c r="I19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>45201</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <v>45232</v>
       </c>
       <c r="D20" s="7">
@@ -1531,16 +1537,16 @@
       <c r="I20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <v>45232</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <v>45262</v>
       </c>
       <c r="D21" s="7">
@@ -1561,16 +1567,16 @@
       <c r="I21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>45232</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <v>45262</v>
       </c>
       <c r="D22" s="7">
@@ -1591,16 +1597,16 @@
       <c r="I22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="s">
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <v>45232</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <v>45262</v>
       </c>
       <c r="D23" s="7">
@@ -1621,16 +1627,16 @@
       <c r="I23" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="14" t="s">
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <v>45171</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="14">
         <v>45171</v>
       </c>
       <c r="D24" s="7">
@@ -1651,16 +1657,16 @@
       <c r="I24" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="14" t="s">
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="14">
         <v>45201</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="14">
         <v>45262</v>
       </c>
       <c r="D25" s="7">
@@ -1681,9 +1687,12 @@
       <c r="I25" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="16"/>
+      <c r="J25" s="18"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J2:J25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>